--- a/biology/Botanique/Cannabis_en_Inde/Cannabis_en_Inde.xlsx
+++ b/biology/Botanique/Cannabis_en_Inde/Cannabis_en_Inde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré un usage très répandu, la loi rend illégale la possession de cannabis en Inde. Cependant, elle est rarement appliquée et ce sujet est une priorité secondaire. De plus, le cannabis est récolté librement sur de grandes surfaces en plusieurs endroits du nord de l’Inde.
 </t>
@@ -511,7 +523,9 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cannabis est consommé lors de certains rituels hindous. Des boutiques gouvernementales de villes sacrées comme Varanasi (anciennement Bénarès) en vendent sous forme de Bhang. 
 </t>
